--- a/Audit-1/Projektplan.xlsx
+++ b/Audit-1/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Audit-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BE67F-7656-40D3-A7FE-96EDA004AF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA37E0-DDD2-495D-A45B-3184B541FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,30 +30,6 @@
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
   <si>
-    <t>KW 01 (31.10-03.11.22)</t>
-  </si>
-  <si>
-    <t>KW 02 (31.10-03.11.22)</t>
-  </si>
-  <si>
-    <t>KW 08 (31.10-03.11.22)</t>
-  </si>
-  <si>
-    <t>KW 03 (31.10-03.11.22)</t>
-  </si>
-  <si>
-    <t>KW 04 (31.10-03.11.22)</t>
-  </si>
-  <si>
-    <t>KW 05 (31.10-03.11.22)</t>
-  </si>
-  <si>
-    <t>KW 06 (31.10-03.11.22)</t>
-  </si>
-  <si>
-    <t>KW 07 (31.10-03.11.22)</t>
-  </si>
-  <si>
     <t>Domänenmodell</t>
   </si>
   <si>
@@ -121,13 +97,37 @@
   </si>
   <si>
     <t>KW 52 (26.12-01.01.23)</t>
+  </si>
+  <si>
+    <t>KW 01 (02.01-08.01.23)</t>
+  </si>
+  <si>
+    <t>KW 02 (09.01-15.01.23)</t>
+  </si>
+  <si>
+    <t>KW 03 (14.01-22.01.23)</t>
+  </si>
+  <si>
+    <t>KW 04 (23.12-29.01.23)</t>
+  </si>
+  <si>
+    <t>KW 05 (30.01-05.02.23)</t>
+  </si>
+  <si>
+    <t>KW 06 (06.02-12.02.23)</t>
+  </si>
+  <si>
+    <t>KW 07 (13.01-19.02.23)</t>
+  </si>
+  <si>
+    <t>KW 08 (20.02-26.02.23)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +156,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -414,25 +421,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -441,6 +440,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -725,98 +734,98 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="18" customWidth="1"/>
     <col min="2" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="L2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="M2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="N2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="O2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="P2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="Q2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="R2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -831,14 +840,14 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="19"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -853,14 +862,14 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="19"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -875,14 +884,14 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="19"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
+      <c r="A7" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -897,14 +906,14 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="19"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
+      <c r="A8" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -919,14 +928,14 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="19"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
+      <c r="A9" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -941,35 +950,35 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="19"/>
+      <c r="R9" s="11"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="20"/>
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="12"/>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
+      <c r="A11" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -987,12 +996,12 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="19"/>
+      <c r="R11" s="11"/>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
+      <c r="A12" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1010,12 +1019,12 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="19"/>
+      <c r="R12" s="11"/>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
+      <c r="A13" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1033,12 +1042,12 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="19"/>
+      <c r="R13" s="11"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
+      <c r="A14" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1056,35 +1065,35 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="19"/>
+      <c r="R14" s="11"/>
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="20"/>
+      <c r="A15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="12"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
+      <c r="A16" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -1102,12 +1111,12 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="19"/>
+      <c r="R16" s="11"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
+      <c r="A17" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -1125,12 +1134,12 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="19"/>
+      <c r="R17" s="11"/>
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
+      <c r="A18" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
@@ -1148,12 +1157,12 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="19"/>
+      <c r="R18" s="11"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
+      <c r="A19" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
@@ -1171,35 +1180,35 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="19"/>
+      <c r="R19" s="11"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="20"/>
+      <c r="A20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="12"/>
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>15</v>
+      <c r="A21" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -1217,12 +1226,12 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="19"/>
+      <c r="R21" s="11"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
+      <c r="A22" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
@@ -1240,12 +1249,12 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="19"/>
+      <c r="R22" s="11"/>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
+      <c r="A23" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -1263,12 +1272,12 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="19"/>
+      <c r="R23" s="11"/>
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
+      <c r="A24" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1286,30 +1295,30 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="19"/>
+      <c r="R24" s="11"/>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
+      <c r="A25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">

--- a/Audit-1/Projektplan.xlsx
+++ b/Audit-1/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Audit-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA37E0-DDD2-495D-A45B-3184B541FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DB944-6A5F-41E8-A235-03EC2F16E107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>KW 08 (20.02-26.02.23)</t>
+  </si>
+  <si>
+    <t>Fertig gestellt</t>
+  </si>
+  <si>
+    <t>In Bearbeitung</t>
+  </si>
+  <si>
+    <t>Unbearbeitet</t>
+  </si>
+  <si>
+    <t>Legende</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,7 +191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,35 +445,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -731,101 +759,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="8" customWidth="1"/>
     <col min="2" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="10"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -840,14 +871,14 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="11"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -862,14 +893,14 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="11"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -884,14 +915,14 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="11"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -906,14 +937,14 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="11"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -928,14 +959,14 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -950,42 +981,42 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="7"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="12"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -996,19 +1027,19 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="11"/>
+      <c r="R11" s="7"/>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1019,19 +1050,19 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="11"/>
+      <c r="R12" s="7"/>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1042,19 +1073,19 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="11"/>
+      <c r="R13" s="7"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1065,34 +1096,34 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="7"/>
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="12"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="5"/>
@@ -1111,11 +1142,11 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="7"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5"/>
@@ -1134,11 +1165,11 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="R17" s="7"/>
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="5"/>
@@ -1157,11 +1188,11 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="R18" s="7"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="5"/>
@@ -1180,34 +1211,34 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="R19" s="7"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="12"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="21"/>
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5"/>
@@ -1226,11 +1257,11 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="R21" s="7"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="5"/>
@@ -1249,11 +1280,11 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
+      <c r="R22" s="7"/>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="5"/>
@@ -1272,11 +1303,11 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
+      <c r="R23" s="7"/>
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="5"/>
@@ -1295,30 +1326,30 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="R24" s="7"/>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
@@ -1328,13 +1359,30 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
       <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>